--- a/yahoo.w.xlsx
+++ b/yahoo.w.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="168">
   <si>
     <t>携帯</t>
   </si>
@@ -91,9 +91,15 @@
     <t>年</t>
   </si>
   <si>
+    <t>縛り</t>
+  </si>
+  <si>
     <t>発生</t>
   </si>
   <si>
+    <t>する</t>
+  </si>
+  <si>
     <t>違約</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t>1000</t>
   </si>
   <si>
+    <t>引き下げる</t>
+  </si>
+  <si>
     <t>案</t>
   </si>
   <si>
@@ -124,9 +133,18 @@
     <t>会議</t>
   </si>
   <si>
+    <t>示し</t>
+  </si>
+  <si>
     <t>実施</t>
   </si>
   <si>
+    <t>さ</t>
+  </si>
+  <si>
+    <t>れれ</t>
+  </si>
+  <si>
     <t>利用</t>
   </si>
   <si>
@@ -142,6 +160,12 @@
     <t>容易</t>
   </si>
   <si>
+    <t>なる</t>
+  </si>
+  <si>
+    <t>抱く</t>
+  </si>
+  <si>
     <t>各社</t>
   </si>
   <si>
@@ -151,6 +175,9 @@
     <t>競争</t>
   </si>
   <si>
+    <t>加え</t>
+  </si>
+  <si>
     <t>金融</t>
   </si>
   <si>
@@ -169,6 +196,9 @@
     <t>分野</t>
   </si>
   <si>
+    <t>入れる</t>
+  </si>
+  <si>
     <t>構え</t>
   </si>
   <si>
@@ -187,6 +217,9 @@
     <t>高額</t>
   </si>
   <si>
+    <t>伴う</t>
+  </si>
+  <si>
     <t>囲い込み</t>
   </si>
   <si>
@@ -232,6 +265,12 @@
     <t>利益</t>
   </si>
   <si>
+    <t>得</t>
+  </si>
+  <si>
+    <t>き</t>
+  </si>
+  <si>
     <t>今秋</t>
   </si>
   <si>
@@ -241,6 +280,9 @@
     <t>以下</t>
   </si>
   <si>
+    <t>なれ</t>
+  </si>
+  <si>
     <t>自由</t>
   </si>
   <si>
@@ -262,15 +304,24 @@
     <t>成長</t>
   </si>
   <si>
+    <t>見込め</t>
+  </si>
+  <si>
     <t>こと</t>
   </si>
   <si>
+    <t>あり</t>
+  </si>
+  <si>
     <t>業界</t>
   </si>
   <si>
     <t>引き下げ</t>
   </si>
   <si>
+    <t>応ぜ</t>
+  </si>
+  <si>
     <t>想定</t>
   </si>
   <si>
@@ -286,9 +337,15 @@
     <t>方針</t>
   </si>
   <si>
+    <t>恨み</t>
+  </si>
+  <si>
     <t>節</t>
   </si>
   <si>
+    <t>漏れる</t>
+  </si>
+  <si>
     <t>今年</t>
   </si>
   <si>
@@ -313,12 +370,21 @@
     <t>神経</t>
   </si>
   <si>
+    <t>とがら</t>
+  </si>
+  <si>
+    <t>せる</t>
+  </si>
+  <si>
     <t>登場</t>
   </si>
   <si>
     <t>拍車</t>
   </si>
   <si>
+    <t>掛かる</t>
+  </si>
+  <si>
     <t>の</t>
   </si>
   <si>
@@ -328,9 +394,15 @@
     <t>多様</t>
   </si>
   <si>
+    <t>引き留め</t>
+  </si>
+  <si>
     <t>鍵</t>
   </si>
   <si>
+    <t>握る</t>
+  </si>
+  <si>
     <t>中</t>
   </si>
   <si>
@@ -364,6 +436,9 @@
     <t>実績</t>
   </si>
   <si>
+    <t>ある</t>
+  </si>
+  <si>
     <t>人</t>
   </si>
   <si>
@@ -373,12 +448,21 @@
     <t>会員</t>
   </si>
   <si>
+    <t>抱え</t>
+  </si>
+  <si>
     <t>経済</t>
   </si>
   <si>
     <t>圏</t>
   </si>
   <si>
+    <t>呼ば</t>
+  </si>
+  <si>
+    <t>れる</t>
+  </si>
+  <si>
     <t>同社</t>
   </si>
   <si>
@@ -394,9 +478,15 @@
     <t>協力</t>
   </si>
   <si>
+    <t>し</t>
+  </si>
+  <si>
     <t>質</t>
   </si>
   <si>
+    <t>高める</t>
+  </si>
+  <si>
     <t>中堅</t>
   </si>
   <si>
@@ -413,6 +503,9 @@
   </si>
   <si>
     <t>付与</t>
+  </si>
+  <si>
+    <t>充てる</t>
   </si>
   <si>
     <t>動き</t>
@@ -756,13 +849,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:48">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:48">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -826,7 +919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:48">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -846,10 +939,10 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
         <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
@@ -867,13 +960,13 @@
         <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
         <v>31</v>
-      </c>
-      <c r="P4" t="s">
-        <v>32</v>
       </c>
       <c r="Q4" t="s">
         <v>33</v>
@@ -884,489 +977,609 @@
       <c r="S4" t="s">
         <v>35</v>
       </c>
+      <c r="T4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:48">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>4</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" t="s">
-        <v>45</v>
-      </c>
       <c r="Q6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="S6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="U6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z6" t="s">
         <v>8</v>
       </c>
-      <c r="V6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="AA6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB6" t="s">
         <v>9</v>
       </c>
-      <c r="X6" t="s">
-        <v>51</v>
+      <c r="AC6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:48">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
         <v>23</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>24</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
         <v>2</v>
       </c>
-      <c r="L8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" t="s">
-        <v>59</v>
-      </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" t="s">
+        <v>71</v>
+      </c>
+      <c r="S8" t="s">
+        <v>72</v>
+      </c>
+      <c r="T8" t="s">
         <v>1</v>
       </c>
-      <c r="R8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S8" t="s">
-        <v>63</v>
-      </c>
-      <c r="T8" t="s">
-        <v>64</v>
-      </c>
       <c r="U8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>71</v>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" t="s">
+        <v>92</v>
+      </c>
+      <c r="S10" t="s">
+        <v>93</v>
+      </c>
+      <c r="T10" t="s">
+        <v>94</v>
+      </c>
+      <c r="U10" t="s">
+        <v>95</v>
+      </c>
+      <c r="V10" t="s">
+        <v>96</v>
+      </c>
+      <c r="W10" t="s">
+        <v>97</v>
+      </c>
+      <c r="X10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S10" t="s">
-        <v>80</v>
-      </c>
-      <c r="T10" t="s">
-        <v>81</v>
-      </c>
-      <c r="U10" t="s">
-        <v>82</v>
-      </c>
-      <c r="V10" t="s">
-        <v>83</v>
-      </c>
-      <c r="W10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X10" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:48">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="Q12" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="R12" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="S12" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="T12" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="U12" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="V12" t="s">
+        <v>124</v>
+      </c>
+      <c r="W12" t="s">
+        <v>125</v>
+      </c>
+      <c r="X12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y12" t="s">
         <v>2</v>
       </c>
-      <c r="W12" t="s">
-        <v>104</v>
-      </c>
-      <c r="X12" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>94</v>
-      </c>
       <c r="Z12" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="AA12" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AB12" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AC12" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="AD12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AE12" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="AF12" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="AG12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" t="s">
         <v>113</v>
       </c>
-      <c r="AH12" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" t="s">
-        <v>119</v>
-      </c>
       <c r="I14" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="M14" t="s">
+        <v>149</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" t="s">
         <v>0</v>
       </c>
-      <c r="N14" t="s">
+      <c r="R14" t="s">
         <v>1</v>
       </c>
-      <c r="O14" t="s">
-        <v>124</v>
-      </c>
-      <c r="P14" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>46</v>
-      </c>
-      <c r="R14" t="s">
-        <v>126</v>
-      </c>
       <c r="S14" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="T14" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="U14" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="V14" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="W14" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="X14" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="Y14" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="Z14" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AA14" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="AB14" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="AC14" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="AD14" t="s">
         <v>8</v>
       </c>
       <c r="AE14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AF14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG14" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="AH14" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="AI14" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="AJ14" t="s">
-        <v>136</v>
+        <v>161</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
